--- a/Excel_Dashboard_Data_Prepared.xlsx
+++ b/Excel_Dashboard_Data_Prepared.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00caa0cb0c81f11/Documents/CV/CPBN interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00caa0cb0c81f11/Documents/CV/CPBN interview/ineractive_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{736B28A4-270F-4168-9D90-AF5ED33BBB7B}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1176AECE-EADE-454D-86A8-520AC0C8D097}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="359">
   <si>
     <t>Projects in Execution</t>
   </si>
@@ -1472,6 +1472,15 @@
   </si>
   <si>
     <t>Average completion is calculated on time lapsed</t>
+  </si>
+  <si>
+    <t>Project Status</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1843,15 +1852,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="U74" sqref="U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1903,8 +1912,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1950,8 +1962,11 @@
       <c r="Q2">
         <v>53.69</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2003,8 +2018,11 @@
       <c r="Q3">
         <v>48.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2050,8 +2068,11 @@
       <c r="Q4">
         <v>332.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2094,8 +2115,11 @@
       <c r="Q5">
         <v>21.54</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2141,8 +2165,11 @@
       <c r="Q6">
         <v>1400</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2194,8 +2221,11 @@
       <c r="Q7">
         <v>39.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2247,8 +2277,11 @@
       <c r="Q8">
         <v>10.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="Q9">
         <v>13.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2350,8 +2386,11 @@
       <c r="Q10">
         <v>29.88</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2400,8 +2439,11 @@
       <c r="Q11">
         <v>25.83</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2453,8 +2495,11 @@
       <c r="Q12">
         <v>35.409999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2506,8 +2551,11 @@
       <c r="Q13">
         <v>45.26</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2559,8 +2607,11 @@
       <c r="Q14">
         <v>338.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2612,8 +2663,11 @@
       <c r="Q15">
         <v>60.83</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2656,8 +2710,11 @@
       <c r="Q16">
         <v>10.57</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2709,8 +2766,11 @@
       <c r="Q17">
         <v>83.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2762,8 +2822,11 @@
       <c r="Q18">
         <v>15.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2815,8 +2878,11 @@
       <c r="Q19">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2868,8 +2934,11 @@
       <c r="Q20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2921,8 +2990,11 @@
       <c r="Q21">
         <v>22.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2974,8 +3046,11 @@
       <c r="Q22">
         <v>13.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3027,8 +3102,11 @@
       <c r="Q23">
         <v>22.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3080,8 +3158,11 @@
       <c r="Q24">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3133,8 +3214,11 @@
       <c r="Q25">
         <v>14.99</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3186,8 +3270,11 @@
       <c r="Q26">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3239,8 +3326,11 @@
       <c r="Q27">
         <v>23.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3292,8 +3382,11 @@
       <c r="Q28">
         <v>11.81</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3435,11 @@
       <c r="Q29">
         <v>48.59</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -3389,8 +3485,11 @@
       <c r="Q30">
         <v>42.62</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -3439,8 +3538,11 @@
       <c r="Q31">
         <v>44.41</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3489,8 +3591,11 @@
       <c r="Q32">
         <v>43.48</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3533,8 +3638,11 @@
       <c r="Q33">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -3583,8 +3691,11 @@
       <c r="Q34">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -3627,8 +3738,11 @@
       <c r="Q35">
         <v>1.121</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -3674,8 +3788,11 @@
       <c r="Q36">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3721,8 +3838,11 @@
       <c r="Q37">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3768,8 +3888,11 @@
       <c r="Q38">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3815,8 +3938,11 @@
       <c r="Q39">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3862,8 +3988,11 @@
       <c r="Q40">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3912,8 +4041,11 @@
       <c r="Q41">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3956,8 +4088,11 @@
       <c r="Q42">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4006,8 +4141,11 @@
       <c r="Q43">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4059,8 +4197,11 @@
       <c r="Q44">
         <v>93.86</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4112,8 +4253,11 @@
       <c r="Q45">
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4162,8 +4306,11 @@
       <c r="Q46">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4212,8 +4359,11 @@
       <c r="Q47">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -4262,8 +4412,11 @@
       <c r="Q48">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -4312,8 +4465,11 @@
       <c r="Q49">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -4359,8 +4515,11 @@
       <c r="Q50">
         <v>3.39</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4565,11 @@
       <c r="Q51">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -4453,8 +4615,11 @@
       <c r="Q52">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4500,8 +4665,11 @@
       <c r="Q53">
         <v>61.46</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4550,8 +4718,11 @@
       <c r="Q54">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -4600,8 +4771,11 @@
       <c r="Q55">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -4650,8 +4824,11 @@
       <c r="Q56">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R56" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -4700,8 +4877,11 @@
       <c r="Q57">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -4750,8 +4930,11 @@
       <c r="Q58">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -4800,8 +4983,11 @@
       <c r="Q59">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4850,8 +5036,11 @@
       <c r="Q60">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R60" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -4900,8 +5089,11 @@
       <c r="Q61">
         <v>14.08</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -4950,8 +5142,11 @@
       <c r="Q62">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R62" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -5000,8 +5195,11 @@
       <c r="Q63">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -5050,8 +5248,11 @@
       <c r="Q64">
         <v>19.809999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R64" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -5100,8 +5301,11 @@
       <c r="Q65">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R65" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -5150,8 +5354,11 @@
       <c r="Q66">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -5200,8 +5407,11 @@
       <c r="Q67">
         <v>18.329999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5244,8 +5454,11 @@
       <c r="Q68">
         <v>22.46</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -5288,8 +5501,11 @@
       <c r="Q69">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -5332,8 +5548,11 @@
       <c r="Q70">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R70" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -5376,8 +5595,11 @@
       <c r="Q71">
         <v>21.04</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R71" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5420,8 +5642,11 @@
       <c r="Q72">
         <v>4.2300000000000004</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R72" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -5464,8 +5689,11 @@
       <c r="Q73">
         <v>4.01</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5508,8 +5736,11 @@
       <c r="Q74">
         <v>11.93</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -5552,8 +5783,11 @@
       <c r="Q75">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R75" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -5599,8 +5833,11 @@
       <c r="Q76">
         <v>15.69</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R76" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5643,8 +5880,11 @@
       <c r="Q77">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R77" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -5687,8 +5927,11 @@
       <c r="Q78">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R78" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -5734,8 +5977,11 @@
       <c r="Q79">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R79" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -5778,8 +6024,11 @@
       <c r="Q80">
         <v>12.84</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R80" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -5828,8 +6077,11 @@
       <c r="Q81">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -5878,8 +6130,11 @@
       <c r="Q82">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R82" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -5928,8 +6183,11 @@
       <c r="Q83">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R83" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -5978,8 +6236,11 @@
       <c r="Q84">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R84" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -6028,8 +6289,11 @@
       <c r="Q85">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R85" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -6077,6 +6341,9 @@
       </c>
       <c r="Q86">
         <v>1.8</v>
+      </c>
+      <c r="R86" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Dashboard_Data_Prepared.xlsx
+++ b/Excel_Dashboard_Data_Prepared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00caa0cb0c81f11/Documents/CV/CPBN interview/ineractive_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1176AECE-EADE-454D-86A8-520AC0C8D097}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91937C14-7434-43C7-9020-92B6AEE48956}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,6 +1563,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1854,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="U74" sqref="U74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1912,7 +1916,7 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6347,7 +6351,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q86" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel_Dashboard_Data_Prepared.xlsx
+++ b/Excel_Dashboard_Data_Prepared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00caa0cb0c81f11/Documents/CV/CPBN interview/ineractive_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91937C14-7434-43C7-9020-92B6AEE48956}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6AB16AD-D2D1-466D-ACD2-3211971A8688}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$86</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1859,10 +1859,14 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1914,10 +1918,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1963,11 +1967,11 @@
       <c r="P2" t="s">
         <v>294</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R2">
         <v>53.69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2019,11 +2023,11 @@
       <c r="P3" t="s">
         <v>295</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>357</v>
+      </c>
+      <c r="R3">
         <v>48.99</v>
-      </c>
-      <c r="R3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2069,11 +2073,11 @@
       <c r="P4" t="s">
         <v>296</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>357</v>
+      </c>
+      <c r="R4">
         <v>332.04</v>
-      </c>
-      <c r="R4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -2116,11 +2120,11 @@
       <c r="P5" t="s">
         <v>297</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>357</v>
+      </c>
+      <c r="R5">
         <v>21.54</v>
-      </c>
-      <c r="R5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -2166,11 +2170,11 @@
       <c r="P6" t="s">
         <v>298</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="s">
+        <v>357</v>
+      </c>
+      <c r="R6">
         <v>1400</v>
-      </c>
-      <c r="R6" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -2222,11 +2226,11 @@
       <c r="P7" t="s">
         <v>299</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="s">
+        <v>357</v>
+      </c>
+      <c r="R7">
         <v>39.46</v>
-      </c>
-      <c r="R7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -2278,11 +2282,11 @@
       <c r="P8" t="s">
         <v>300</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="s">
+        <v>357</v>
+      </c>
+      <c r="R8">
         <v>10.93</v>
-      </c>
-      <c r="R8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -2334,11 +2338,11 @@
       <c r="P9" t="s">
         <v>300</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="s">
+        <v>357</v>
+      </c>
+      <c r="R9">
         <v>13.33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -2387,11 +2391,11 @@
       <c r="P10" t="s">
         <v>301</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="s">
+        <v>357</v>
+      </c>
+      <c r="R10">
         <v>29.88</v>
-      </c>
-      <c r="R10" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -2440,11 +2444,11 @@
       <c r="P11" t="s">
         <v>302</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="s">
+        <v>357</v>
+      </c>
+      <c r="R11">
         <v>25.83</v>
-      </c>
-      <c r="R11" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -2496,11 +2500,11 @@
       <c r="P12" t="s">
         <v>303</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="s">
+        <v>357</v>
+      </c>
+      <c r="R12">
         <v>35.409999999999997</v>
-      </c>
-      <c r="R12" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -2552,11 +2556,11 @@
       <c r="P13" t="s">
         <v>304</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="s">
+        <v>357</v>
+      </c>
+      <c r="R13">
         <v>45.26</v>
-      </c>
-      <c r="R13" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -2608,11 +2612,11 @@
       <c r="P14" t="s">
         <v>305</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="s">
+        <v>357</v>
+      </c>
+      <c r="R14">
         <v>338.69</v>
-      </c>
-      <c r="R14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -2664,11 +2668,11 @@
       <c r="P15" t="s">
         <v>306</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="s">
+        <v>357</v>
+      </c>
+      <c r="R15">
         <v>60.83</v>
-      </c>
-      <c r="R15" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -2711,11 +2715,11 @@
       <c r="P16" t="s">
         <v>307</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="s">
+        <v>357</v>
+      </c>
+      <c r="R16">
         <v>10.57</v>
-      </c>
-      <c r="R16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -2767,11 +2771,11 @@
       <c r="P17" t="s">
         <v>308</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="s">
+        <v>357</v>
+      </c>
+      <c r="R17">
         <v>83.95</v>
-      </c>
-      <c r="R17" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -2823,11 +2827,11 @@
       <c r="P18" t="s">
         <v>309</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18">
         <v>15.15</v>
-      </c>
-      <c r="R18" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -2879,11 +2883,11 @@
       <c r="P19" t="s">
         <v>310</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="s">
+        <v>357</v>
+      </c>
+      <c r="R19">
         <v>8.58</v>
-      </c>
-      <c r="R19" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -2935,11 +2939,11 @@
       <c r="P20" t="s">
         <v>311</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="s">
+        <v>357</v>
+      </c>
+      <c r="R20">
         <v>19</v>
-      </c>
-      <c r="R20" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -2991,11 +2995,11 @@
       <c r="P21" t="s">
         <v>312</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="s">
+        <v>357</v>
+      </c>
+      <c r="R21">
         <v>22.13</v>
-      </c>
-      <c r="R21" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
@@ -3047,11 +3051,11 @@
       <c r="P22" t="s">
         <v>313</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="s">
+        <v>357</v>
+      </c>
+      <c r="R22">
         <v>13.74</v>
-      </c>
-      <c r="R22" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
@@ -3103,11 +3107,11 @@
       <c r="P23" t="s">
         <v>314</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="s">
+        <v>357</v>
+      </c>
+      <c r="R23">
         <v>22.15</v>
-      </c>
-      <c r="R23" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -3159,11 +3163,11 @@
       <c r="P24" t="s">
         <v>315</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="s">
+        <v>357</v>
+      </c>
+      <c r="R24">
         <v>32.700000000000003</v>
-      </c>
-      <c r="R24" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -3215,11 +3219,11 @@
       <c r="P25" t="s">
         <v>316</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="s">
+        <v>357</v>
+      </c>
+      <c r="R25">
         <v>14.99</v>
-      </c>
-      <c r="R25" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -3271,11 +3275,11 @@
       <c r="P26" t="s">
         <v>317</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="s">
+        <v>357</v>
+      </c>
+      <c r="R26">
         <v>5.73</v>
-      </c>
-      <c r="R26" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
@@ -3327,11 +3331,11 @@
       <c r="P27" t="s">
         <v>318</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="s">
+        <v>357</v>
+      </c>
+      <c r="R27">
         <v>23.41</v>
-      </c>
-      <c r="R27" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -3383,11 +3387,11 @@
       <c r="P28" t="s">
         <v>319</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="s">
+        <v>357</v>
+      </c>
+      <c r="R28">
         <v>11.81</v>
-      </c>
-      <c r="R28" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
@@ -3436,11 +3440,11 @@
       <c r="P29" t="s">
         <v>320</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="s">
+        <v>357</v>
+      </c>
+      <c r="R29">
         <v>48.59</v>
-      </c>
-      <c r="R29" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -3486,11 +3490,11 @@
       <c r="P30" t="s">
         <v>321</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="s">
+        <v>357</v>
+      </c>
+      <c r="R30">
         <v>42.62</v>
-      </c>
-      <c r="R30" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
@@ -3539,11 +3543,11 @@
       <c r="P31" t="s">
         <v>322</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="s">
+        <v>357</v>
+      </c>
+      <c r="R31">
         <v>44.41</v>
-      </c>
-      <c r="R31" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -3592,11 +3596,11 @@
       <c r="P32" t="s">
         <v>323</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="s">
+        <v>358</v>
+      </c>
+      <c r="R32">
         <v>43.48</v>
-      </c>
-      <c r="R32" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -3639,11 +3643,11 @@
       <c r="P33" t="s">
         <v>324</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="s">
+        <v>358</v>
+      </c>
+      <c r="R33">
         <v>48</v>
-      </c>
-      <c r="R33" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -3692,11 +3696,11 @@
       <c r="P34" t="s">
         <v>325</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="s">
+        <v>358</v>
+      </c>
+      <c r="R34">
         <v>83</v>
-      </c>
-      <c r="R34" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -3739,11 +3743,11 @@
       <c r="P35" t="s">
         <v>326</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="s">
+        <v>358</v>
+      </c>
+      <c r="R35">
         <v>1.121</v>
-      </c>
-      <c r="R35" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -3789,11 +3793,11 @@
       <c r="P36" t="s">
         <v>327</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="s">
+        <v>358</v>
+      </c>
+      <c r="R36">
         <v>41.4</v>
-      </c>
-      <c r="R36" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -3839,11 +3843,11 @@
       <c r="P37" t="s">
         <v>328</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="s">
+        <v>358</v>
+      </c>
+      <c r="R37">
         <v>42.2</v>
-      </c>
-      <c r="R37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -3889,11 +3893,11 @@
       <c r="P38" t="s">
         <v>328</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" t="s">
+        <v>358</v>
+      </c>
+      <c r="R38">
         <v>28.3</v>
-      </c>
-      <c r="R38" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -3939,11 +3943,11 @@
       <c r="P39" t="s">
         <v>329</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" t="s">
+        <v>358</v>
+      </c>
+      <c r="R39">
         <v>42.2</v>
-      </c>
-      <c r="R39" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -3989,11 +3993,11 @@
       <c r="P40" t="s">
         <v>328</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="s">
+        <v>358</v>
+      </c>
+      <c r="R40">
         <v>31.6</v>
-      </c>
-      <c r="R40" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -4042,11 +4046,11 @@
       <c r="P41" t="s">
         <v>330</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" t="s">
+        <v>358</v>
+      </c>
+      <c r="R41">
         <v>79</v>
-      </c>
-      <c r="R41" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -4089,11 +4093,11 @@
       <c r="P42" t="s">
         <v>331</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" t="s">
+        <v>358</v>
+      </c>
+      <c r="R42">
         <v>48.7</v>
-      </c>
-      <c r="R42" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -4142,11 +4146,11 @@
       <c r="P43" t="s">
         <v>321</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="s">
+        <v>358</v>
+      </c>
+      <c r="R43">
         <v>72</v>
-      </c>
-      <c r="R43" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
@@ -4198,11 +4202,11 @@
       <c r="P44" t="s">
         <v>332</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" t="s">
+        <v>358</v>
+      </c>
+      <c r="R44">
         <v>93.86</v>
-      </c>
-      <c r="R44" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
@@ -4254,11 +4258,11 @@
       <c r="P45" t="s">
         <v>333</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" t="s">
+        <v>358</v>
+      </c>
+      <c r="R45">
         <v>8.8699999999999992</v>
-      </c>
-      <c r="R45" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -4307,11 +4311,11 @@
       <c r="P46" t="s">
         <v>334</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" t="s">
+        <v>357</v>
+      </c>
+      <c r="R46">
         <v>76</v>
-      </c>
-      <c r="R46" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -4360,11 +4364,11 @@
       <c r="P47" t="s">
         <v>334</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="s">
+        <v>357</v>
+      </c>
+      <c r="R47">
         <v>71</v>
-      </c>
-      <c r="R47" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -4413,11 +4417,11 @@
       <c r="P48" t="s">
         <v>335</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" t="s">
+        <v>357</v>
+      </c>
+      <c r="R48">
         <v>83</v>
-      </c>
-      <c r="R48" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -4466,11 +4470,11 @@
       <c r="P49" t="s">
         <v>336</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" t="s">
+        <v>357</v>
+      </c>
+      <c r="R49">
         <v>58</v>
-      </c>
-      <c r="R49" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
@@ -4516,11 +4520,11 @@
       <c r="O50" t="s">
         <v>276</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" t="s">
+        <v>357</v>
+      </c>
+      <c r="R50">
         <v>3.39</v>
-      </c>
-      <c r="R50" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -4566,11 +4570,11 @@
       <c r="O51" t="s">
         <v>277</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" t="s">
+        <v>358</v>
+      </c>
+      <c r="R51">
         <v>4.75</v>
-      </c>
-      <c r="R51" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -4616,11 +4620,11 @@
       <c r="O52" t="s">
         <v>278</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" t="s">
+        <v>358</v>
+      </c>
+      <c r="R52">
         <v>7.71</v>
-      </c>
-      <c r="R52" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -4666,11 +4670,11 @@
       <c r="O53" t="s">
         <v>279</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" t="s">
+        <v>358</v>
+      </c>
+      <c r="R53">
         <v>61.46</v>
-      </c>
-      <c r="R53" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
@@ -4719,11 +4723,11 @@
       <c r="P54" t="s">
         <v>337</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" t="s">
+        <v>358</v>
+      </c>
+      <c r="R54">
         <v>3.4</v>
-      </c>
-      <c r="R54" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -4772,11 +4776,11 @@
       <c r="P55" t="s">
         <v>337</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" t="s">
+        <v>358</v>
+      </c>
+      <c r="R55">
         <v>2.27</v>
-      </c>
-      <c r="R55" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -4825,11 +4829,11 @@
       <c r="P56" t="s">
         <v>338</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" t="s">
+        <v>358</v>
+      </c>
+      <c r="R56">
         <v>3.1</v>
-      </c>
-      <c r="R56" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -4878,11 +4882,11 @@
       <c r="P57" t="s">
         <v>339</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" t="s">
+        <v>358</v>
+      </c>
+      <c r="R57">
         <v>3.1</v>
-      </c>
-      <c r="R57" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
@@ -4931,11 +4935,11 @@
       <c r="P58" t="s">
         <v>337</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" t="s">
+        <v>358</v>
+      </c>
+      <c r="R58">
         <v>3.74</v>
-      </c>
-      <c r="R58" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
@@ -4984,11 +4988,11 @@
       <c r="P59" t="s">
         <v>340</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" t="s">
+        <v>358</v>
+      </c>
+      <c r="R59">
         <v>2.14</v>
-      </c>
-      <c r="R59" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
@@ -5037,11 +5041,11 @@
       <c r="P60" t="s">
         <v>341</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" t="s">
+        <v>358</v>
+      </c>
+      <c r="R60">
         <v>3.97</v>
-      </c>
-      <c r="R60" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
@@ -5090,11 +5094,11 @@
       <c r="P61" t="s">
         <v>342</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" t="s">
+        <v>358</v>
+      </c>
+      <c r="R61">
         <v>14.08</v>
-      </c>
-      <c r="R61" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
@@ -5143,11 +5147,11 @@
       <c r="P62" t="s">
         <v>343</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" t="s">
+        <v>358</v>
+      </c>
+      <c r="R62">
         <v>1.83</v>
-      </c>
-      <c r="R62" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
@@ -5196,11 +5200,11 @@
       <c r="P63" t="s">
         <v>344</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" t="s">
+        <v>358</v>
+      </c>
+      <c r="R63">
         <v>4.4400000000000004</v>
-      </c>
-      <c r="R63" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -5249,11 +5253,11 @@
       <c r="P64" t="s">
         <v>345</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" t="s">
+        <v>357</v>
+      </c>
+      <c r="R64">
         <v>19.809999999999999</v>
-      </c>
-      <c r="R64" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
@@ -5302,11 +5306,11 @@
       <c r="P65" t="s">
         <v>346</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" t="s">
+        <v>357</v>
+      </c>
+      <c r="R65">
         <v>8.9</v>
-      </c>
-      <c r="R65" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
@@ -5355,11 +5359,11 @@
       <c r="P66" t="s">
         <v>347</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" t="s">
+        <v>357</v>
+      </c>
+      <c r="R66">
         <v>6.67</v>
-      </c>
-      <c r="R66" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
@@ -5408,11 +5412,11 @@
       <c r="P67" t="s">
         <v>348</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" t="s">
+        <v>357</v>
+      </c>
+      <c r="R67">
         <v>18.329999999999998</v>
-      </c>
-      <c r="R67" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
@@ -5455,11 +5459,11 @@
       <c r="O68" t="s">
         <v>258</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" t="s">
+        <v>357</v>
+      </c>
+      <c r="R68">
         <v>22.46</v>
-      </c>
-      <c r="R68" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
@@ -5502,11 +5506,11 @@
       <c r="O69" t="s">
         <v>258</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" t="s">
+        <v>358</v>
+      </c>
+      <c r="R69">
         <v>3.5</v>
-      </c>
-      <c r="R69" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
@@ -5549,11 +5553,11 @@
       <c r="O70" t="s">
         <v>258</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" t="s">
+        <v>358</v>
+      </c>
+      <c r="R70">
         <v>4.7300000000000004</v>
-      </c>
-      <c r="R70" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
@@ -5596,11 +5600,11 @@
       <c r="O71" t="s">
         <v>289</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" t="s">
+        <v>358</v>
+      </c>
+      <c r="R71">
         <v>21.04</v>
-      </c>
-      <c r="R71" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
@@ -5643,11 +5647,11 @@
       <c r="O72" t="s">
         <v>258</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" t="s">
+        <v>358</v>
+      </c>
+      <c r="R72">
         <v>4.2300000000000004</v>
-      </c>
-      <c r="R72" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
@@ -5690,11 +5694,11 @@
       <c r="O73" t="s">
         <v>258</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" t="s">
+        <v>358</v>
+      </c>
+      <c r="R73">
         <v>4.01</v>
-      </c>
-      <c r="R73" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
@@ -5737,11 +5741,11 @@
       <c r="O74" t="s">
         <v>290</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" t="s">
+        <v>358</v>
+      </c>
+      <c r="R74">
         <v>11.93</v>
-      </c>
-      <c r="R74" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
@@ -5784,11 +5788,11 @@
       <c r="O75" t="s">
         <v>290</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" t="s">
+        <v>357</v>
+      </c>
+      <c r="R75">
         <v>3.71</v>
-      </c>
-      <c r="R75" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
@@ -5834,11 +5838,11 @@
       <c r="P76" t="s">
         <v>349</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" t="s">
+        <v>357</v>
+      </c>
+      <c r="R76">
         <v>15.69</v>
-      </c>
-      <c r="R76" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
@@ -5881,11 +5885,11 @@
       <c r="O77" t="s">
         <v>258</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" t="s">
+        <v>357</v>
+      </c>
+      <c r="R77">
         <v>4.5</v>
-      </c>
-      <c r="R77" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
@@ -5928,11 +5932,11 @@
       <c r="O78" t="s">
         <v>258</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" t="s">
+        <v>357</v>
+      </c>
+      <c r="R78">
         <v>4.67</v>
-      </c>
-      <c r="R78" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
@@ -5978,11 +5982,11 @@
       <c r="P79" t="s">
         <v>350</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" t="s">
+        <v>357</v>
+      </c>
+      <c r="R79">
         <v>1.7</v>
-      </c>
-      <c r="R79" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
@@ -6025,11 +6029,11 @@
       <c r="O80" t="s">
         <v>292</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" t="s">
+        <v>357</v>
+      </c>
+      <c r="R80">
         <v>12.84</v>
-      </c>
-      <c r="R80" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
@@ -6078,11 +6082,11 @@
       <c r="P81" t="s">
         <v>351</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" t="s">
+        <v>357</v>
+      </c>
+      <c r="R81">
         <v>4.03</v>
-      </c>
-      <c r="R81" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
@@ -6131,11 +6135,11 @@
       <c r="P82" t="s">
         <v>352</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" t="s">
+        <v>357</v>
+      </c>
+      <c r="R82">
         <v>1.81</v>
-      </c>
-      <c r="R82" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
@@ -6184,11 +6188,11 @@
       <c r="P83" t="s">
         <v>353</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" t="s">
+        <v>357</v>
+      </c>
+      <c r="R83">
         <v>107</v>
-      </c>
-      <c r="R83" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
@@ -6237,11 +6241,11 @@
       <c r="P84" t="s">
         <v>354</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" t="s">
+        <v>357</v>
+      </c>
+      <c r="R84">
         <v>1.23</v>
-      </c>
-      <c r="R84" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
@@ -6290,11 +6294,11 @@
       <c r="P85" t="s">
         <v>354</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" t="s">
+        <v>357</v>
+      </c>
+      <c r="R85">
         <v>0.65</v>
-      </c>
-      <c r="R85" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
@@ -6343,11 +6347,11 @@
       <c r="P86" t="s">
         <v>355</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" t="s">
+        <v>357</v>
+      </c>
+      <c r="R86">
         <v>1.8</v>
-      </c>
-      <c r="R86" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Dashboard_Data_Prepared.xlsx
+++ b/Excel_Dashboard_Data_Prepared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00caa0cb0c81f11/Documents/CV/CPBN interview/ineractive_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6AB16AD-D2D1-466D-ACD2-3211971A8688}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99B84909-5D92-4F6B-BBC5-BF84C713D668}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6355,6 +6355,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R86" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel_Dashboard_Data_Prepared.xlsx
+++ b/Excel_Dashboard_Data_Prepared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00caa0cb0c81f11/Documents/CV/CPBN interview/ineractive_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99B84909-5D92-4F6B-BBC5-BF84C713D668}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79DFA5CE-FFEA-42A7-94E6-F25F34A6E08B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$86</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1859,11 +1872,15 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" customWidth="1"/>
+    <col min="13" max="13" width="18.08984375" customWidth="1"/>
     <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1971,7 +1988,7 @@
         <v>357</v>
       </c>
       <c r="R2">
-        <v>53.69</v>
+        <v>53690000</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -2027,7 +2044,7 @@
         <v>357</v>
       </c>
       <c r="R3">
-        <v>48.99</v>
+        <v>48990000</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -2077,7 +2094,7 @@
         <v>357</v>
       </c>
       <c r="R4">
-        <v>332.04</v>
+        <v>332040000</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -2124,7 +2141,7 @@
         <v>357</v>
       </c>
       <c r="R5">
-        <v>21.54</v>
+        <v>21540000</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -2174,7 +2191,7 @@
         <v>357</v>
       </c>
       <c r="R6">
-        <v>1400</v>
+        <v>1400000000</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -2230,7 +2247,7 @@
         <v>357</v>
       </c>
       <c r="R7">
-        <v>39.46</v>
+        <v>39460000</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -2286,7 +2303,7 @@
         <v>357</v>
       </c>
       <c r="R8">
-        <v>10.93</v>
+        <v>10930000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -2342,7 +2359,7 @@
         <v>357</v>
       </c>
       <c r="R9">
-        <v>13.33</v>
+        <v>13330000</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -2395,7 +2412,7 @@
         <v>357</v>
       </c>
       <c r="R10">
-        <v>29.88</v>
+        <v>29880000</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -2448,7 +2465,7 @@
         <v>357</v>
       </c>
       <c r="R11">
-        <v>25.83</v>
+        <v>25830000</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -2504,7 +2521,7 @@
         <v>357</v>
       </c>
       <c r="R12">
-        <v>35.409999999999997</v>
+        <v>35410000</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -2560,7 +2577,7 @@
         <v>357</v>
       </c>
       <c r="R13">
-        <v>45.26</v>
+        <v>45260000</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -2616,7 +2633,7 @@
         <v>357</v>
       </c>
       <c r="R14">
-        <v>338.69</v>
+        <v>338690000</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -2672,7 +2689,7 @@
         <v>357</v>
       </c>
       <c r="R15">
-        <v>60.83</v>
+        <v>60830000</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -2719,7 +2736,7 @@
         <v>357</v>
       </c>
       <c r="R16">
-        <v>10.57</v>
+        <v>10570000</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -2775,7 +2792,7 @@
         <v>357</v>
       </c>
       <c r="R17">
-        <v>83.95</v>
+        <v>83950000</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -2831,7 +2848,7 @@
         <v>357</v>
       </c>
       <c r="R18">
-        <v>15.15</v>
+        <v>15150000</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -2887,7 +2904,7 @@
         <v>357</v>
       </c>
       <c r="R19">
-        <v>8.58</v>
+        <v>8580000</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -2943,7 +2960,7 @@
         <v>357</v>
       </c>
       <c r="R20">
-        <v>19</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -2999,7 +3016,7 @@
         <v>357</v>
       </c>
       <c r="R21">
-        <v>22.13</v>
+        <v>22130000</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
@@ -3055,7 +3072,7 @@
         <v>357</v>
       </c>
       <c r="R22">
-        <v>13.74</v>
+        <v>13740000</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
@@ -3111,7 +3128,7 @@
         <v>357</v>
       </c>
       <c r="R23">
-        <v>22.15</v>
+        <v>22150000</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -3167,7 +3184,7 @@
         <v>357</v>
       </c>
       <c r="R24">
-        <v>32.700000000000003</v>
+        <v>32700000.000000004</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -3223,7 +3240,7 @@
         <v>357</v>
       </c>
       <c r="R25">
-        <v>14.99</v>
+        <v>14990000</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -3279,7 +3296,7 @@
         <v>357</v>
       </c>
       <c r="R26">
-        <v>5.73</v>
+        <v>5730000</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
@@ -3335,7 +3352,7 @@
         <v>357</v>
       </c>
       <c r="R27">
-        <v>23.41</v>
+        <v>23410000</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -3391,7 +3408,7 @@
         <v>357</v>
       </c>
       <c r="R28">
-        <v>11.81</v>
+        <v>11810000</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
@@ -3444,7 +3461,7 @@
         <v>357</v>
       </c>
       <c r="R29">
-        <v>48.59</v>
+        <v>48590000</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -3494,7 +3511,7 @@
         <v>357</v>
       </c>
       <c r="R30">
-        <v>42.62</v>
+        <v>42620000</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
@@ -3547,7 +3564,7 @@
         <v>357</v>
       </c>
       <c r="R31">
-        <v>44.41</v>
+        <v>44410000</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -3600,7 +3617,7 @@
         <v>358</v>
       </c>
       <c r="R32">
-        <v>43.48</v>
+        <v>43480000</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -3647,7 +3664,7 @@
         <v>358</v>
       </c>
       <c r="R33">
-        <v>48</v>
+        <v>48000000</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -3700,7 +3717,7 @@
         <v>358</v>
       </c>
       <c r="R34">
-        <v>83</v>
+        <v>83000000</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -3747,7 +3764,7 @@
         <v>358</v>
       </c>
       <c r="R35">
-        <v>1.121</v>
+        <v>1121000</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -3797,7 +3814,7 @@
         <v>358</v>
       </c>
       <c r="R36">
-        <v>41.4</v>
+        <v>41400000</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -3847,7 +3864,7 @@
         <v>358</v>
       </c>
       <c r="R37">
-        <v>42.2</v>
+        <v>42200000</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -3897,7 +3914,7 @@
         <v>358</v>
       </c>
       <c r="R38">
-        <v>28.3</v>
+        <v>28300000</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -3947,7 +3964,7 @@
         <v>358</v>
       </c>
       <c r="R39">
-        <v>42.2</v>
+        <v>42200000</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -3997,7 +4014,7 @@
         <v>358</v>
       </c>
       <c r="R40">
-        <v>31.6</v>
+        <v>31600000</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -4050,7 +4067,7 @@
         <v>358</v>
       </c>
       <c r="R41">
-        <v>79</v>
+        <v>79000000</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -4097,7 +4114,7 @@
         <v>358</v>
       </c>
       <c r="R42">
-        <v>48.7</v>
+        <v>48700000</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -4150,7 +4167,7 @@
         <v>358</v>
       </c>
       <c r="R43">
-        <v>72</v>
+        <v>72000000</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
@@ -4206,7 +4223,7 @@
         <v>358</v>
       </c>
       <c r="R44">
-        <v>93.86</v>
+        <v>93860000</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
@@ -4262,7 +4279,7 @@
         <v>358</v>
       </c>
       <c r="R45">
-        <v>8.8699999999999992</v>
+        <v>8870000</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -4315,7 +4332,7 @@
         <v>357</v>
       </c>
       <c r="R46">
-        <v>76</v>
+        <v>76000000</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -4368,7 +4385,7 @@
         <v>357</v>
       </c>
       <c r="R47">
-        <v>71</v>
+        <v>71000000</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -4421,7 +4438,7 @@
         <v>357</v>
       </c>
       <c r="R48">
-        <v>83</v>
+        <v>83000000</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -4474,7 +4491,7 @@
         <v>357</v>
       </c>
       <c r="R49">
-        <v>58</v>
+        <v>58000000</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
@@ -4524,7 +4541,7 @@
         <v>357</v>
       </c>
       <c r="R50">
-        <v>3.39</v>
+        <v>3390000</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -4574,7 +4591,7 @@
         <v>358</v>
       </c>
       <c r="R51">
-        <v>4.75</v>
+        <v>4750000</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -4624,7 +4641,7 @@
         <v>358</v>
       </c>
       <c r="R52">
-        <v>7.71</v>
+        <v>7710000</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -4674,7 +4691,7 @@
         <v>358</v>
       </c>
       <c r="R53">
-        <v>61.46</v>
+        <v>61460000</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
@@ -4727,7 +4744,7 @@
         <v>358</v>
       </c>
       <c r="R54">
-        <v>3.4</v>
+        <v>3400000</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -4780,7 +4797,7 @@
         <v>358</v>
       </c>
       <c r="R55">
-        <v>2.27</v>
+        <v>2270000</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -4833,7 +4850,7 @@
         <v>358</v>
       </c>
       <c r="R56">
-        <v>3.1</v>
+        <v>3100000</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -4886,7 +4903,7 @@
         <v>358</v>
       </c>
       <c r="R57">
-        <v>3.1</v>
+        <v>3100000</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
@@ -4939,7 +4956,7 @@
         <v>358</v>
       </c>
       <c r="R58">
-        <v>3.74</v>
+        <v>3740000</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
@@ -4992,7 +5009,7 @@
         <v>358</v>
       </c>
       <c r="R59">
-        <v>2.14</v>
+        <v>2140000</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
@@ -5045,7 +5062,7 @@
         <v>358</v>
       </c>
       <c r="R60">
-        <v>3.97</v>
+        <v>3970000</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
@@ -5098,7 +5115,7 @@
         <v>358</v>
       </c>
       <c r="R61">
-        <v>14.08</v>
+        <v>14080000</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
@@ -5151,7 +5168,7 @@
         <v>358</v>
       </c>
       <c r="R62">
-        <v>1.83</v>
+        <v>1830000</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
@@ -5204,7 +5221,7 @@
         <v>358</v>
       </c>
       <c r="R63">
-        <v>4.4400000000000004</v>
+        <v>4440000</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -5257,7 +5274,7 @@
         <v>357</v>
       </c>
       <c r="R64">
-        <v>19.809999999999999</v>
+        <v>19810000</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
@@ -5310,7 +5327,7 @@
         <v>357</v>
       </c>
       <c r="R65">
-        <v>8.9</v>
+        <v>8900000</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
@@ -5363,7 +5380,7 @@
         <v>357</v>
       </c>
       <c r="R66">
-        <v>6.67</v>
+        <v>6670000</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
@@ -5416,7 +5433,7 @@
         <v>357</v>
       </c>
       <c r="R67">
-        <v>18.329999999999998</v>
+        <v>18330000</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
@@ -5463,7 +5480,7 @@
         <v>357</v>
       </c>
       <c r="R68">
-        <v>22.46</v>
+        <v>22460000</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
@@ -5510,7 +5527,7 @@
         <v>358</v>
       </c>
       <c r="R69">
-        <v>3.5</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
@@ -5557,7 +5574,7 @@
         <v>358</v>
       </c>
       <c r="R70">
-        <v>4.7300000000000004</v>
+        <v>4730000</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
@@ -5604,7 +5621,7 @@
         <v>358</v>
       </c>
       <c r="R71">
-        <v>21.04</v>
+        <v>21040000</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
@@ -5651,7 +5668,7 @@
         <v>358</v>
       </c>
       <c r="R72">
-        <v>4.2300000000000004</v>
+        <v>4230000</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
@@ -5698,7 +5715,7 @@
         <v>358</v>
       </c>
       <c r="R73">
-        <v>4.01</v>
+        <v>4010000</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
@@ -5745,7 +5762,7 @@
         <v>358</v>
       </c>
       <c r="R74">
-        <v>11.93</v>
+        <v>11930000</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
@@ -5792,7 +5809,7 @@
         <v>357</v>
       </c>
       <c r="R75">
-        <v>3.71</v>
+        <v>3710000</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
@@ -5842,7 +5859,7 @@
         <v>357</v>
       </c>
       <c r="R76">
-        <v>15.69</v>
+        <v>15690000</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
@@ -5889,7 +5906,7 @@
         <v>357</v>
       </c>
       <c r="R77">
-        <v>4.5</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
@@ -5936,7 +5953,7 @@
         <v>357</v>
       </c>
       <c r="R78">
-        <v>4.67</v>
+        <v>4670000</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
@@ -5986,7 +6003,7 @@
         <v>357</v>
       </c>
       <c r="R79">
-        <v>1.7</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
@@ -6033,7 +6050,7 @@
         <v>357</v>
       </c>
       <c r="R80">
-        <v>12.84</v>
+        <v>12840000</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
@@ -6086,7 +6103,7 @@
         <v>357</v>
       </c>
       <c r="R81">
-        <v>4.03</v>
+        <v>4030000.0000000005</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
@@ -6139,7 +6156,7 @@
         <v>357</v>
       </c>
       <c r="R82">
-        <v>1.81</v>
+        <v>1810000</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
@@ -6192,7 +6209,7 @@
         <v>357</v>
       </c>
       <c r="R83">
-        <v>107</v>
+        <v>107000000</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
@@ -6245,7 +6262,7 @@
         <v>357</v>
       </c>
       <c r="R84">
-        <v>1.23</v>
+        <v>1230000</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
@@ -6298,7 +6315,7 @@
         <v>357</v>
       </c>
       <c r="R85">
-        <v>0.65</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
@@ -6351,7 +6368,7 @@
         <v>357</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Dashboard_Data_Prepared.xlsx
+++ b/Excel_Dashboard_Data_Prepared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f00caa0cb0c81f11/Documents/CV/CPBN interview/ineractive_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79DFA5CE-FFEA-42A7-94E6-F25F34A6E08B}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_C62A5EC133312EFDC649BB4C69DDDB71512D7D5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62EDA6F1-05C7-4CA4-B221-2EE45D74EB07}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="358">
   <si>
     <t>Projects in Execution</t>
   </si>
@@ -920,9 +920,6 @@
   </si>
   <si>
     <t>May-21</t>
-  </si>
-  <si>
-    <t>Jun-21</t>
   </si>
   <si>
     <t>Apr-22</t>
@@ -1500,10 +1497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1513,6 +1507,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1552,18 +1553,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1872,11 +1879,15 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="5" max="5" width="21.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="11" max="11" width="12.54296875" customWidth="1"/>
     <col min="12" max="12" width="16.90625" customWidth="1"/>
@@ -1898,13 +1909,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1935,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
@@ -1954,14 +1965,14 @@
       <c r="D2" t="s">
         <v>193</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>197</v>
       </c>
       <c r="F2">
         <v>2922</v>
       </c>
-      <c r="G2" t="s">
-        <v>220</v>
+      <c r="G2" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="I2">
         <v>111083076.62</v>
@@ -1972,20 +1983,20 @@
       <c r="K2">
         <v>0.73</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>0.73</v>
       </c>
       <c r="M2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R2">
         <v>53690000</v>
@@ -2004,17 +2015,17 @@
       <c r="D3" t="s">
         <v>193</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>198</v>
       </c>
       <c r="F3">
         <v>1194</v>
       </c>
-      <c r="G3" t="s">
-        <v>221</v>
+      <c r="G3" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3">
         <v>64251259.240000002</v>
@@ -2025,23 +2036,23 @@
       <c r="K3">
         <v>1.74</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.9</v>
       </c>
       <c r="M3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N3">
         <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R3">
         <v>48990000</v>
@@ -2060,17 +2071,17 @@
       <c r="D4" t="s">
         <v>193</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>199</v>
       </c>
       <c r="F4">
         <v>2014</v>
       </c>
-      <c r="G4" t="s">
-        <v>222</v>
+      <c r="G4" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4">
         <v>480000000</v>
@@ -2081,17 +2092,17 @@
       <c r="K4">
         <v>0.97</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>0.97</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R4">
         <v>332040000</v>
@@ -2110,14 +2121,14 @@
       <c r="D5" t="s">
         <v>193</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>200</v>
       </c>
       <c r="F5">
         <v>1826</v>
       </c>
-      <c r="G5" t="s">
-        <v>223</v>
+      <c r="G5" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I5">
         <v>21545005.609999999</v>
@@ -2128,17 +2139,17 @@
       <c r="K5">
         <v>1.03</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R5">
         <v>21540000</v>
@@ -2157,17 +2168,17 @@
       <c r="D6" t="s">
         <v>194</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>201</v>
       </c>
       <c r="F6">
         <v>1731</v>
       </c>
-      <c r="G6" t="s">
-        <v>224</v>
+      <c r="G6" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6">
         <v>47282748.700000003</v>
@@ -2178,17 +2189,17 @@
       <c r="K6">
         <v>1.04</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0.97</v>
       </c>
       <c r="M6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R6">
         <v>1400000000</v>
@@ -2207,17 +2218,17 @@
       <c r="D7" t="s">
         <v>193</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>202</v>
       </c>
       <c r="F7">
         <v>992</v>
       </c>
-      <c r="G7" t="s">
-        <v>212</v>
+      <c r="G7" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I7">
         <v>42795107.380000003</v>
@@ -2228,23 +2239,23 @@
       <c r="K7">
         <v>1.58</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N7">
         <v>115</v>
       </c>
       <c r="O7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R7">
         <v>39460000</v>
@@ -2263,17 +2274,17 @@
       <c r="D8" t="s">
         <v>193</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F8">
         <v>1641</v>
       </c>
-      <c r="G8" t="s">
-        <v>225</v>
+      <c r="G8" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I8">
         <v>12551341.5</v>
@@ -2284,23 +2295,23 @@
       <c r="K8">
         <v>0.93</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0.93</v>
       </c>
       <c r="M8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N8">
         <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R8">
         <v>10930000</v>
@@ -2319,17 +2330,17 @@
       <c r="D9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F9">
         <v>1641</v>
       </c>
-      <c r="G9" t="s">
-        <v>225</v>
+      <c r="G9" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I9">
         <v>15428921.800000001</v>
@@ -2340,23 +2351,23 @@
       <c r="K9">
         <v>0.93</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0.93</v>
       </c>
       <c r="M9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N9">
         <v>50</v>
       </c>
       <c r="O9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R9">
         <v>13330000</v>
@@ -2375,17 +2386,17 @@
       <c r="D10" t="s">
         <v>193</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F10">
         <v>631</v>
       </c>
-      <c r="G10" t="s">
-        <v>214</v>
+      <c r="G10" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I10">
         <v>41575067.490000002</v>
@@ -2396,20 +2407,20 @@
       <c r="K10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>0.97</v>
       </c>
       <c r="M10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R10">
         <v>29880000</v>
@@ -2428,17 +2439,17 @@
       <c r="D11" t="s">
         <v>193</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F11">
         <v>631</v>
       </c>
-      <c r="G11" t="s">
-        <v>214</v>
+      <c r="G11" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I11">
         <v>51913110.469999999</v>
@@ -2449,20 +2460,20 @@
       <c r="K11">
         <v>2.2400000000000002</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.99</v>
       </c>
       <c r="M11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R11">
         <v>25830000</v>
@@ -2481,17 +2492,17 @@
       <c r="D12" t="s">
         <v>193</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F12">
         <v>1460</v>
       </c>
-      <c r="G12" t="s">
-        <v>226</v>
+      <c r="G12" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I12">
         <v>36715170.960000001</v>
@@ -2502,23 +2513,23 @@
       <c r="K12">
         <v>0.92</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0.92</v>
       </c>
       <c r="M12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N12">
         <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R12">
         <v>35410000</v>
@@ -2537,17 +2548,17 @@
       <c r="D13" t="s">
         <v>193</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F13">
         <v>916</v>
       </c>
-      <c r="G13" t="s">
-        <v>219</v>
+      <c r="G13" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I13">
         <v>46424178.630000003</v>
@@ -2558,23 +2569,23 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N13">
         <v>70</v>
       </c>
       <c r="O13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R13">
         <v>45260000</v>
@@ -2593,17 +2604,17 @@
       <c r="D14" t="s">
         <v>195</v>
       </c>
-      <c r="E14" t="s">
-        <v>206</v>
+      <c r="E14" s="4">
+        <v>44348</v>
       </c>
       <c r="F14">
         <v>692</v>
       </c>
-      <c r="G14" t="s">
-        <v>216</v>
+      <c r="G14" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="H14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I14">
         <v>340808287</v>
@@ -2614,23 +2625,23 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N14">
         <v>81</v>
       </c>
       <c r="O14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R14">
         <v>338690000</v>
@@ -2649,17 +2660,17 @@
       <c r="D15" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>44378</v>
       </c>
       <c r="F15">
         <v>637</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>44927</v>
       </c>
       <c r="H15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I15">
         <v>66250272.579999998</v>
@@ -2670,23 +2681,23 @@
       <c r="K15">
         <v>2.0099999999999998</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N15">
         <v>85</v>
       </c>
       <c r="O15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R15">
         <v>60830000</v>
@@ -2705,13 +2716,13 @@
       <c r="D16" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>44378</v>
       </c>
       <c r="F16">
         <v>2185</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>46539</v>
       </c>
       <c r="I16">
@@ -2723,17 +2734,17 @@
       <c r="K16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="M16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R16">
         <v>10570000</v>
@@ -2752,17 +2763,17 @@
       <c r="D17" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>44501</v>
       </c>
       <c r="F17">
         <v>1276</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>45566</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I17">
         <v>63877248</v>
@@ -2773,23 +2784,23 @@
       <c r="K17">
         <v>0.91</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>0.91</v>
       </c>
       <c r="M17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N17">
         <v>466</v>
       </c>
       <c r="O17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R17">
         <v>83950000</v>
@@ -2808,17 +2819,17 @@
       <c r="D18" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>44501</v>
       </c>
       <c r="F18">
         <v>1276</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>45566</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18">
         <v>17023392</v>
@@ -2829,23 +2840,23 @@
       <c r="K18">
         <v>0.91</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>0.91</v>
       </c>
       <c r="M18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N18">
         <v>101</v>
       </c>
       <c r="O18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R18">
         <v>15150000</v>
@@ -2864,17 +2875,17 @@
       <c r="D19" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>44501</v>
       </c>
       <c r="F19">
         <v>1276</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>45566</v>
       </c>
       <c r="H19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I19">
         <v>8154432</v>
@@ -2885,23 +2896,23 @@
       <c r="K19">
         <v>0.91</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>0.91</v>
       </c>
       <c r="M19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N19">
         <v>55</v>
       </c>
       <c r="O19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R19">
         <v>8580000</v>
@@ -2920,17 +2931,17 @@
       <c r="D20" t="s">
         <v>193</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>44501</v>
       </c>
       <c r="F20">
         <v>1276</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>45566</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I20">
         <v>16404120</v>
@@ -2941,23 +2952,23 @@
       <c r="K20">
         <v>0.91</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>0.91</v>
       </c>
       <c r="M20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N20">
         <v>101</v>
       </c>
       <c r="O20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R20">
         <v>19000000</v>
@@ -2976,17 +2987,17 @@
       <c r="D21" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>44501</v>
       </c>
       <c r="F21">
         <v>1276</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>45566</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I21">
         <v>16601760</v>
@@ -2997,23 +3008,23 @@
       <c r="K21">
         <v>0.91</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>0.91</v>
       </c>
       <c r="M21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N21">
         <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R21">
         <v>22130000</v>
@@ -3032,17 +3043,17 @@
       <c r="D22" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>44501</v>
       </c>
       <c r="F22">
         <v>1276</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>45566</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I22">
         <v>10253563.199999999</v>
@@ -3053,23 +3064,23 @@
       <c r="K22">
         <v>0.91</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>0.91</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N22">
         <v>84</v>
       </c>
       <c r="O22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R22">
         <v>13740000</v>
@@ -3088,17 +3099,17 @@
       <c r="D23" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>44501</v>
       </c>
       <c r="F23">
         <v>1276</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>45566</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I23">
         <v>18073080</v>
@@ -3109,23 +3120,23 @@
       <c r="K23">
         <v>0.91</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>0.91</v>
       </c>
       <c r="M23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N23">
         <v>110</v>
       </c>
       <c r="O23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R23">
         <v>22150000</v>
@@ -3144,17 +3155,17 @@
       <c r="D24" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>44501</v>
       </c>
       <c r="F24">
         <v>1276</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <v>45566</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I24">
         <v>29158224.48</v>
@@ -3165,23 +3176,23 @@
       <c r="K24">
         <v>0.91</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>0.91</v>
       </c>
       <c r="M24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N24">
         <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R24">
         <v>32700000.000000004</v>
@@ -3200,17 +3211,17 @@
       <c r="D25" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>44501</v>
       </c>
       <c r="F25">
         <v>1276</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>45566</v>
       </c>
       <c r="H25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I25">
         <v>15331330.08</v>
@@ -3221,23 +3232,23 @@
       <c r="K25">
         <v>0.91</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>0.91</v>
       </c>
       <c r="M25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N25">
         <v>93</v>
       </c>
       <c r="O25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R25">
         <v>14990000</v>
@@ -3256,17 +3267,17 @@
       <c r="D26" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>44501</v>
       </c>
       <c r="F26">
         <v>1276</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>45566</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I26">
         <v>8698707.3599999994</v>
@@ -3277,23 +3288,23 @@
       <c r="K26">
         <v>0.91</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>0.91</v>
       </c>
       <c r="M26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N26">
         <v>88</v>
       </c>
       <c r="O26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R26">
         <v>5730000</v>
@@ -3312,17 +3323,17 @@
       <c r="D27" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>44501</v>
       </c>
       <c r="F27">
         <v>1276</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <v>45566</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I27">
         <v>20383272</v>
@@ -3333,23 +3344,23 @@
       <c r="K27">
         <v>0.91</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>0.91</v>
       </c>
       <c r="M27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N27">
         <v>190</v>
       </c>
       <c r="O27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R27">
         <v>23410000</v>
@@ -3368,17 +3379,17 @@
       <c r="D28" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>44501</v>
       </c>
       <c r="F28">
         <v>1276</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <v>45566</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I28">
         <v>9178401.5999999996</v>
@@ -3389,23 +3400,23 @@
       <c r="K28">
         <v>0.91</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <v>0.91</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N28">
         <v>86</v>
       </c>
       <c r="O28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R28">
         <v>11810000</v>
@@ -3424,13 +3435,13 @@
       <c r="D29" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>44593</v>
       </c>
       <c r="F29">
         <v>919</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <v>45505</v>
       </c>
       <c r="I29">
@@ -3442,23 +3453,23 @@
       <c r="K29">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N29">
         <v>56</v>
       </c>
       <c r="O29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R29">
         <v>48590000</v>
@@ -3477,13 +3488,13 @@
       <c r="D30" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>44593</v>
       </c>
       <c r="F30">
         <v>1095</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <v>45689</v>
       </c>
       <c r="I30">
@@ -3495,20 +3506,20 @@
       <c r="K30">
         <v>0.95</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <v>0.95</v>
       </c>
       <c r="M30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N30">
         <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R30">
         <v>42620000</v>
@@ -3527,13 +3538,13 @@
       <c r="D31" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>44652</v>
       </c>
       <c r="F31">
         <v>571</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <v>45200</v>
       </c>
       <c r="I31">
@@ -3545,23 +3556,23 @@
       <c r="K31">
         <v>1.75</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N31">
         <v>40</v>
       </c>
       <c r="O31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R31">
         <v>44410000</v>
@@ -3580,13 +3591,13 @@
       <c r="D32" t="s">
         <v>193</v>
       </c>
-      <c r="E32" t="s">
-        <v>207</v>
+      <c r="E32" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="F32">
         <v>1090</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="4">
         <v>45748</v>
       </c>
       <c r="I32">
@@ -3598,23 +3609,23 @@
       <c r="K32">
         <v>0.92</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <v>0.45</v>
       </c>
       <c r="M32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N32">
         <v>68</v>
       </c>
       <c r="O32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R32">
         <v>43480000</v>
@@ -3633,13 +3644,13 @@
       <c r="D33" t="s">
         <v>193</v>
       </c>
-      <c r="E33" t="s">
-        <v>208</v>
+      <c r="E33" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F33">
         <v>1096</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <v>45778</v>
       </c>
       <c r="I33">
@@ -3651,17 +3662,17 @@
       <c r="K33">
         <v>0.88</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <v>0.88</v>
       </c>
       <c r="M33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R33">
         <v>48000000</v>
@@ -3680,13 +3691,13 @@
       <c r="D34" t="s">
         <v>193</v>
       </c>
-      <c r="E34" t="s">
-        <v>208</v>
+      <c r="E34" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F34">
         <v>730</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <v>45413</v>
       </c>
       <c r="I34">
@@ -3698,23 +3709,23 @@
       <c r="K34">
         <v>1.32</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N34">
         <v>26</v>
       </c>
       <c r="O34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R34">
         <v>83000000</v>
@@ -3733,13 +3744,13 @@
       <c r="D35" t="s">
         <v>193</v>
       </c>
-      <c r="E35" t="s">
-        <v>208</v>
+      <c r="E35" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F35">
         <v>1086</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <v>45748</v>
       </c>
       <c r="I35">
@@ -3751,17 +3762,17 @@
       <c r="K35">
         <v>0.89</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <v>0.02</v>
       </c>
       <c r="M35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R35">
         <v>1121000</v>
@@ -3780,13 +3791,13 @@
       <c r="D36" t="s">
         <v>193</v>
       </c>
-      <c r="E36" t="s">
-        <v>208</v>
+      <c r="E36" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F36">
         <v>1095</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <v>45778</v>
       </c>
       <c r="I36">
@@ -3798,20 +3809,20 @@
       <c r="K36">
         <v>0.88</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="2">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R36">
         <v>41400000</v>
@@ -3830,13 +3841,13 @@
       <c r="D37" t="s">
         <v>193</v>
       </c>
-      <c r="E37" t="s">
-        <v>209</v>
+      <c r="E37" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F37">
         <v>1095</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="4">
         <v>45809</v>
       </c>
       <c r="I37">
@@ -3848,20 +3859,20 @@
       <c r="K37">
         <v>0.86</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <v>0.8</v>
       </c>
       <c r="M37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R37">
         <v>42200000</v>
@@ -3880,13 +3891,13 @@
       <c r="D38" t="s">
         <v>193</v>
       </c>
-      <c r="E38" t="s">
-        <v>209</v>
+      <c r="E38" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F38">
         <v>1095</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="4">
         <v>45809</v>
       </c>
       <c r="I38">
@@ -3898,20 +3909,20 @@
       <c r="K38">
         <v>0.86</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <v>0.68</v>
       </c>
       <c r="M38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R38">
         <v>28300000</v>
@@ -3930,13 +3941,13 @@
       <c r="D39" t="s">
         <v>193</v>
       </c>
-      <c r="E39" t="s">
-        <v>209</v>
+      <c r="E39" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F39">
         <v>1095</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <v>45809</v>
       </c>
       <c r="I39">
@@ -3948,20 +3959,20 @@
       <c r="K39">
         <v>0.86</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
         <v>0.54</v>
       </c>
       <c r="M39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R39">
         <v>42200000</v>
@@ -3980,13 +3991,13 @@
       <c r="D40" t="s">
         <v>193</v>
       </c>
-      <c r="E40" t="s">
-        <v>209</v>
+      <c r="E40" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F40">
         <v>1095</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <v>45809</v>
       </c>
       <c r="I40">
@@ -3998,20 +4009,20 @@
       <c r="K40">
         <v>0.84</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="2">
         <v>1.03</v>
       </c>
       <c r="M40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R40">
         <v>31600000</v>
@@ -4030,13 +4041,13 @@
       <c r="D41" t="s">
         <v>193</v>
       </c>
-      <c r="E41" t="s">
-        <v>209</v>
+      <c r="E41" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F41">
         <v>845</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <v>45566</v>
       </c>
       <c r="I41">
@@ -4048,23 +4059,23 @@
       <c r="K41">
         <v>1.08</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <v>0.8</v>
       </c>
       <c r="M41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N41">
         <v>45</v>
       </c>
       <c r="O41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R41">
         <v>79000000</v>
@@ -4083,13 +4094,13 @@
       <c r="D42" t="s">
         <v>193</v>
       </c>
-      <c r="E42" t="s">
-        <v>210</v>
+      <c r="E42" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="F42">
         <v>1826</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <v>46569</v>
       </c>
       <c r="I42">
@@ -4101,17 +4112,17 @@
       <c r="K42">
         <v>0.49</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <v>0.49</v>
       </c>
       <c r="M42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R42">
         <v>48700000</v>
@@ -4130,13 +4141,13 @@
       <c r="D43" t="s">
         <v>193</v>
       </c>
-      <c r="E43" t="s">
-        <v>211</v>
+      <c r="E43" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F43">
         <v>1092</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <v>45870</v>
       </c>
       <c r="I43">
@@ -4148,23 +4159,23 @@
       <c r="K43">
         <v>0.8</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="2">
         <v>0.8</v>
       </c>
       <c r="M43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N43">
         <v>113</v>
       </c>
       <c r="O43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R43">
         <v>72000000</v>
@@ -4183,17 +4194,17 @@
       <c r="D44" t="s">
         <v>193</v>
       </c>
-      <c r="E44" t="s">
-        <v>211</v>
+      <c r="E44" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F44">
         <v>731</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="4">
         <v>45505</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I44">
         <v>126752050.39</v>
@@ -4204,23 +4215,23 @@
       <c r="K44">
         <v>1.18</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>0.99</v>
       </c>
       <c r="M44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N44">
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R44">
         <v>93860000</v>
@@ -4239,17 +4250,17 @@
       <c r="D45" t="s">
         <v>193</v>
       </c>
-      <c r="E45" t="s">
-        <v>211</v>
+      <c r="E45" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F45">
         <v>730</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <v>45505</v>
       </c>
       <c r="H45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I45">
         <v>93228108.189999998</v>
@@ -4260,23 +4271,23 @@
       <c r="K45">
         <v>1.19</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <v>0.6</v>
       </c>
       <c r="M45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N45">
         <v>16</v>
       </c>
       <c r="O45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R45">
         <v>8870000</v>
@@ -4295,13 +4306,13 @@
       <c r="D46" t="s">
         <v>193</v>
       </c>
-      <c r="E46" t="s">
-        <v>212</v>
+      <c r="E46" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F46">
         <v>1095</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <v>45870</v>
       </c>
       <c r="I46">
@@ -4313,23 +4324,23 @@
       <c r="K46">
         <v>0.78</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="2">
         <v>0.78</v>
       </c>
       <c r="M46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N46">
         <v>75</v>
       </c>
       <c r="O46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R46">
         <v>76000000</v>
@@ -4348,13 +4359,13 @@
       <c r="D47" t="s">
         <v>193</v>
       </c>
-      <c r="E47" t="s">
-        <v>212</v>
+      <c r="E47" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F47">
         <v>1095</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <v>45870</v>
       </c>
       <c r="I47">
@@ -4366,23 +4377,23 @@
       <c r="K47">
         <v>0.78</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="2">
         <v>0.78</v>
       </c>
       <c r="M47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N47">
         <v>30</v>
       </c>
       <c r="O47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R47">
         <v>71000000</v>
@@ -4401,13 +4412,13 @@
       <c r="D48" t="s">
         <v>193</v>
       </c>
-      <c r="E48" t="s">
-        <v>212</v>
+      <c r="E48" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F48">
         <v>1095</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <v>45870</v>
       </c>
       <c r="I48">
@@ -4419,23 +4430,23 @@
       <c r="K48">
         <v>0.78</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="2">
         <v>0.78</v>
       </c>
       <c r="M48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N48">
         <v>11</v>
       </c>
       <c r="O48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R48">
         <v>83000000</v>
@@ -4454,13 +4465,13 @@
       <c r="D49" t="s">
         <v>193</v>
       </c>
-      <c r="E49" t="s">
-        <v>212</v>
+      <c r="E49" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F49">
         <v>1095</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <v>45870</v>
       </c>
       <c r="I49">
@@ -4472,23 +4483,23 @@
       <c r="K49">
         <v>0.78</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="2">
         <v>0.53</v>
       </c>
       <c r="M49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N49">
         <v>25</v>
       </c>
       <c r="O49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R49">
         <v>58000000</v>
@@ -4507,14 +4518,14 @@
       <c r="D50" t="s">
         <v>193</v>
       </c>
-      <c r="E50" t="s">
-        <v>212</v>
+      <c r="E50" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F50">
         <v>1095</v>
       </c>
-      <c r="G50" t="s">
-        <v>227</v>
+      <c r="G50" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="I50">
         <v>3978482.02</v>
@@ -4525,20 +4536,20 @@
       <c r="K50">
         <v>0.78</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="2">
         <v>0.78</v>
       </c>
       <c r="M50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N50">
         <v>21</v>
       </c>
       <c r="O50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R50">
         <v>3390000</v>
@@ -4557,14 +4568,14 @@
       <c r="D51" t="s">
         <v>193</v>
       </c>
-      <c r="E51" t="s">
-        <v>212</v>
+      <c r="E51" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F51">
         <v>1095</v>
       </c>
-      <c r="G51" t="s">
-        <v>227</v>
+      <c r="G51" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="I51">
         <v>7263342.7599999998</v>
@@ -4575,20 +4586,20 @@
       <c r="K51">
         <v>0.78</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <v>0.78</v>
       </c>
       <c r="M51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N51">
         <v>39</v>
       </c>
       <c r="O51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R51">
         <v>4750000</v>
@@ -4607,14 +4618,14 @@
       <c r="D52" t="s">
         <v>193</v>
       </c>
-      <c r="E52" t="s">
-        <v>212</v>
+      <c r="E52" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F52">
         <v>1095</v>
       </c>
-      <c r="G52" t="s">
-        <v>227</v>
+      <c r="G52" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="I52">
         <v>10962000</v>
@@ -4625,20 +4636,20 @@
       <c r="K52">
         <v>0.78</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <v>0.78</v>
       </c>
       <c r="M52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N52">
         <v>29</v>
       </c>
       <c r="O52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R52">
         <v>7710000</v>
@@ -4657,14 +4668,14 @@
       <c r="D53" t="s">
         <v>193</v>
       </c>
-      <c r="E53" t="s">
-        <v>213</v>
+      <c r="E53" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="F53">
         <v>670</v>
       </c>
-      <c r="G53" t="s">
-        <v>222</v>
+      <c r="G53" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I53">
         <v>70651945.790000007</v>
@@ -4675,20 +4686,20 @@
       <c r="K53">
         <v>1.22</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <v>0.8</v>
       </c>
       <c r="M53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N53">
         <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R53">
         <v>61460000</v>
@@ -4707,14 +4718,14 @@
       <c r="D54" t="s">
         <v>193</v>
       </c>
-      <c r="E54" t="s">
-        <v>214</v>
+      <c r="E54" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F54">
         <v>1095</v>
       </c>
-      <c r="G54" t="s">
-        <v>228</v>
+      <c r="G54" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I54">
         <v>4801032</v>
@@ -4725,23 +4736,23 @@
       <c r="K54">
         <v>0.72</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <v>0.72</v>
       </c>
       <c r="M54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N54">
         <v>30</v>
       </c>
       <c r="O54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R54">
         <v>3400000</v>
@@ -4760,14 +4771,14 @@
       <c r="D55" t="s">
         <v>193</v>
       </c>
-      <c r="E55" t="s">
-        <v>214</v>
+      <c r="E55" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F55">
         <v>1095</v>
       </c>
-      <c r="G55" t="s">
-        <v>228</v>
+      <c r="G55" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I55">
         <v>3856896</v>
@@ -4778,23 +4789,23 @@
       <c r="K55">
         <v>0.72</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <v>0.72</v>
       </c>
       <c r="M55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N55">
         <v>20</v>
       </c>
       <c r="O55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R55">
         <v>2270000</v>
@@ -4813,14 +4824,14 @@
       <c r="D56" t="s">
         <v>193</v>
       </c>
-      <c r="E56" t="s">
-        <v>214</v>
+      <c r="E56" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F56">
         <v>1095</v>
       </c>
-      <c r="G56" t="s">
-        <v>228</v>
+      <c r="G56" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I56">
         <v>5121882</v>
@@ -4831,23 +4842,23 @@
       <c r="K56">
         <v>0.72</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <v>0.72</v>
       </c>
       <c r="M56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N56">
         <v>32</v>
       </c>
       <c r="O56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R56">
         <v>3100000</v>
@@ -4866,14 +4877,14 @@
       <c r="D57" t="s">
         <v>193</v>
       </c>
-      <c r="E57" t="s">
-        <v>214</v>
+      <c r="E57" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F57">
         <v>1095</v>
       </c>
-      <c r="G57" t="s">
-        <v>228</v>
+      <c r="G57" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I57">
         <v>5115000</v>
@@ -4884,23 +4895,23 @@
       <c r="K57">
         <v>0.72</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <v>0.72</v>
       </c>
       <c r="M57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N57">
         <v>35</v>
       </c>
       <c r="O57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R57">
         <v>3100000</v>
@@ -4919,14 +4930,14 @@
       <c r="D58" t="s">
         <v>193</v>
       </c>
-      <c r="E58" t="s">
-        <v>214</v>
+      <c r="E58" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F58">
         <v>1095</v>
       </c>
-      <c r="G58" t="s">
-        <v>228</v>
+      <c r="G58" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I58">
         <v>5293054</v>
@@ -4937,23 +4948,23 @@
       <c r="K58">
         <v>0.72</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <v>0.72</v>
       </c>
       <c r="M58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N58">
         <v>45</v>
       </c>
       <c r="O58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R58">
         <v>3740000</v>
@@ -4972,14 +4983,14 @@
       <c r="D59" t="s">
         <v>193</v>
       </c>
-      <c r="E59" t="s">
-        <v>214</v>
+      <c r="E59" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F59">
         <v>1095</v>
       </c>
-      <c r="G59" t="s">
-        <v>228</v>
+      <c r="G59" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I59">
         <v>3047003</v>
@@ -4990,23 +5001,23 @@
       <c r="K59">
         <v>0.72</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="2">
         <v>0.72</v>
       </c>
       <c r="M59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N59">
         <v>19</v>
       </c>
       <c r="O59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R59">
         <v>2140000</v>
@@ -5025,14 +5036,14 @@
       <c r="D60" t="s">
         <v>193</v>
       </c>
-      <c r="E60" t="s">
-        <v>214</v>
+      <c r="E60" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F60">
         <v>1095</v>
       </c>
-      <c r="G60" t="s">
-        <v>228</v>
+      <c r="G60" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="I60">
         <v>3883680</v>
@@ -5043,23 +5054,23 @@
       <c r="K60">
         <v>0.72</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <v>0.72</v>
       </c>
       <c r="M60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N60">
         <v>26</v>
       </c>
       <c r="O60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R60">
         <v>3970000</v>
@@ -5078,14 +5089,14 @@
       <c r="D61" t="s">
         <v>193</v>
       </c>
-      <c r="E61" t="s">
-        <v>214</v>
+      <c r="E61" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F61">
         <v>599</v>
       </c>
-      <c r="G61" t="s">
-        <v>229</v>
+      <c r="G61" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="I61">
         <v>30625566.489999998</v>
@@ -5096,23 +5107,23 @@
       <c r="K61">
         <v>1.31</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N61">
         <v>32</v>
       </c>
       <c r="O61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R61">
         <v>14080000</v>
@@ -5131,14 +5142,14 @@
       <c r="D62" t="s">
         <v>193</v>
       </c>
-      <c r="E62" t="s">
-        <v>215</v>
+      <c r="E62" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F62">
         <v>1095</v>
       </c>
-      <c r="G62" t="s">
-        <v>230</v>
+      <c r="G62" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="I62">
         <v>7305336</v>
@@ -5149,23 +5160,23 @@
       <c r="K62">
         <v>0.67</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <v>0.67</v>
       </c>
       <c r="M62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N62">
         <v>26</v>
       </c>
       <c r="O62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R62">
         <v>1830000</v>
@@ -5184,14 +5195,14 @@
       <c r="D63" t="s">
         <v>193</v>
       </c>
-      <c r="E63" t="s">
-        <v>215</v>
+      <c r="E63" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F63">
         <v>1095</v>
       </c>
-      <c r="G63" t="s">
-        <v>230</v>
+      <c r="G63" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="I63">
         <v>19914334.789999999</v>
@@ -5202,23 +5213,23 @@
       <c r="K63">
         <v>0.67</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="2">
         <v>0.67</v>
       </c>
       <c r="M63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N63">
         <v>125</v>
       </c>
       <c r="O63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R63">
         <v>4440000</v>
@@ -5237,14 +5248,14 @@
       <c r="D64" t="s">
         <v>193</v>
       </c>
-      <c r="E64" t="s">
-        <v>215</v>
+      <c r="E64" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F64">
         <v>730</v>
       </c>
-      <c r="G64" t="s">
-        <v>231</v>
+      <c r="G64" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="I64">
         <v>85217412.209999993</v>
@@ -5255,23 +5266,23 @@
       <c r="K64">
         <v>0.97</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="2">
         <v>0.23</v>
       </c>
       <c r="M64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N64">
         <v>15</v>
       </c>
       <c r="O64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R64">
         <v>19810000</v>
@@ -5290,14 +5301,14 @@
       <c r="D65" t="s">
         <v>193</v>
       </c>
-      <c r="E65" t="s">
-        <v>216</v>
+      <c r="E65" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="F65">
         <v>731</v>
       </c>
-      <c r="G65" t="s">
-        <v>232</v>
+      <c r="G65" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="I65">
         <v>89909534.959999993</v>
@@ -5308,23 +5319,23 @@
       <c r="K65">
         <v>0.95</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <v>0.1</v>
       </c>
       <c r="M65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N65">
         <v>19</v>
       </c>
       <c r="O65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R65">
         <v>8900000</v>
@@ -5343,14 +5354,14 @@
       <c r="D66" t="s">
         <v>193</v>
       </c>
-      <c r="E66" t="s">
-        <v>217</v>
+      <c r="E66" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F66">
         <v>1096</v>
       </c>
-      <c r="G66" t="s">
-        <v>233</v>
+      <c r="G66" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="I66">
         <v>10077926.4</v>
@@ -5361,23 +5372,23 @@
       <c r="K66">
         <v>0.61</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <v>0.61</v>
       </c>
       <c r="M66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N66">
         <v>97</v>
       </c>
       <c r="O66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R66">
         <v>6670000</v>
@@ -5396,14 +5407,14 @@
       <c r="D67" t="s">
         <v>193</v>
       </c>
-      <c r="E67" t="s">
-        <v>217</v>
+      <c r="E67" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F67">
         <v>636</v>
       </c>
-      <c r="G67" t="s">
-        <v>223</v>
+      <c r="G67" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I67">
         <v>56647200.130000003</v>
@@ -5414,23 +5425,23 @@
       <c r="K67">
         <v>1.05</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="2">
         <v>0.37</v>
       </c>
       <c r="M67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N67">
         <v>12</v>
       </c>
       <c r="O67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R67">
         <v>18330000</v>
@@ -5449,14 +5460,14 @@
       <c r="D68" t="s">
         <v>193</v>
       </c>
-      <c r="E68" t="s">
-        <v>218</v>
+      <c r="E68" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F68">
         <v>1826</v>
       </c>
-      <c r="G68" t="s">
-        <v>234</v>
+      <c r="G68" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I68">
         <v>75774420</v>
@@ -5467,17 +5478,17 @@
       <c r="K68">
         <v>0.35</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="2">
         <v>0.3</v>
       </c>
       <c r="M68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R68">
         <v>22460000</v>
@@ -5496,14 +5507,14 @@
       <c r="D69" t="s">
         <v>193</v>
       </c>
-      <c r="E69" t="s">
-        <v>218</v>
+      <c r="E69" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F69">
         <v>1826</v>
       </c>
-      <c r="G69" t="s">
-        <v>234</v>
+      <c r="G69" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I69">
         <v>14000539.359999999</v>
@@ -5514,17 +5525,17 @@
       <c r="K69">
         <v>0.35</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <v>0.25</v>
       </c>
       <c r="M69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R69">
         <v>3500000</v>
@@ -5543,14 +5554,14 @@
       <c r="D70" t="s">
         <v>193</v>
       </c>
-      <c r="E70" t="s">
-        <v>218</v>
+      <c r="E70" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F70">
         <v>1826</v>
       </c>
-      <c r="G70" t="s">
-        <v>234</v>
+      <c r="G70" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I70">
         <v>14376426</v>
@@ -5561,17 +5572,17 @@
       <c r="K70">
         <v>0.35</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="2">
         <v>0.33</v>
       </c>
       <c r="M70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R70">
         <v>4730000</v>
@@ -5590,14 +5601,14 @@
       <c r="D71" t="s">
         <v>193</v>
       </c>
-      <c r="E71" t="s">
-        <v>218</v>
+      <c r="E71" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F71">
         <v>1826</v>
       </c>
-      <c r="G71" t="s">
-        <v>234</v>
+      <c r="G71" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I71">
         <v>76965733.75</v>
@@ -5608,17 +5619,17 @@
       <c r="K71">
         <v>0.35</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="2">
         <v>0.27</v>
       </c>
       <c r="M71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R71">
         <v>21040000</v>
@@ -5637,14 +5648,14 @@
       <c r="D72" t="s">
         <v>193</v>
       </c>
-      <c r="E72" t="s">
-        <v>218</v>
+      <c r="E72" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F72">
         <v>1826</v>
       </c>
-      <c r="G72" t="s">
-        <v>234</v>
+      <c r="G72" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I72">
         <v>14708488.5</v>
@@ -5655,17 +5666,17 @@
       <c r="K72">
         <v>0.35</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="M72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R72">
         <v>4230000</v>
@@ -5684,14 +5695,14 @@
       <c r="D73" t="s">
         <v>193</v>
       </c>
-      <c r="E73" t="s">
-        <v>218</v>
+      <c r="E73" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F73">
         <v>1826</v>
       </c>
-      <c r="G73" t="s">
-        <v>234</v>
+      <c r="G73" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I73">
         <v>14234504.5</v>
@@ -5702,17 +5713,17 @@
       <c r="K73">
         <v>0.35</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="M73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R73">
         <v>4010000</v>
@@ -5731,14 +5742,14 @@
       <c r="D74" t="s">
         <v>193</v>
       </c>
-      <c r="E74" t="s">
-        <v>218</v>
+      <c r="E74" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F74">
         <v>1826</v>
       </c>
-      <c r="G74" t="s">
-        <v>234</v>
+      <c r="G74" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I74">
         <v>51548750</v>
@@ -5749,17 +5760,17 @@
       <c r="K74">
         <v>0.35</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="2">
         <v>0.23</v>
       </c>
       <c r="M74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R74">
         <v>11930000</v>
@@ -5778,14 +5789,14 @@
       <c r="D75" t="s">
         <v>193</v>
       </c>
-      <c r="E75" t="s">
-        <v>218</v>
+      <c r="E75" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F75">
         <v>1826</v>
       </c>
-      <c r="G75" t="s">
-        <v>234</v>
+      <c r="G75" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I75">
         <v>14660976.25</v>
@@ -5796,17 +5807,17 @@
       <c r="K75">
         <v>0.35</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="2">
         <v>0.25</v>
       </c>
       <c r="M75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R75">
         <v>3710000</v>
@@ -5825,14 +5836,14 @@
       <c r="D76" t="s">
         <v>193</v>
       </c>
-      <c r="E76" t="s">
-        <v>218</v>
+      <c r="E76" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F76">
         <v>1826</v>
       </c>
-      <c r="G76" t="s">
-        <v>234</v>
+      <c r="G76" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I76">
         <v>95736120</v>
@@ -5843,20 +5854,20 @@
       <c r="K76">
         <v>0.35</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="2">
         <v>0.12</v>
       </c>
       <c r="M76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P76" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R76">
         <v>15690000</v>
@@ -5875,14 +5886,14 @@
       <c r="D77" t="s">
         <v>193</v>
       </c>
-      <c r="E77" t="s">
-        <v>218</v>
+      <c r="E77" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F77">
         <v>1826</v>
       </c>
-      <c r="G77" t="s">
-        <v>234</v>
+      <c r="G77" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I77">
         <v>14685274.300000001</v>
@@ -5893,17 +5904,17 @@
       <c r="K77">
         <v>0.35</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="2">
         <v>0.3</v>
       </c>
       <c r="M77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R77">
         <v>4500000</v>
@@ -5922,14 +5933,14 @@
       <c r="D78" t="s">
         <v>193</v>
       </c>
-      <c r="E78" t="s">
-        <v>218</v>
+      <c r="E78" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F78">
         <v>1826</v>
       </c>
-      <c r="G78" t="s">
-        <v>234</v>
+      <c r="G78" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I78">
         <v>16267900</v>
@@ -5940,17 +5951,17 @@
       <c r="K78">
         <v>0.35</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="M78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q78" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R78">
         <v>4670000</v>
@@ -5969,14 +5980,14 @@
       <c r="D79" t="s">
         <v>193</v>
       </c>
-      <c r="E79" t="s">
-        <v>218</v>
+      <c r="E79" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F79">
         <v>1826</v>
       </c>
-      <c r="G79" t="s">
-        <v>234</v>
+      <c r="G79" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="I79">
         <v>15571954.5</v>
@@ -5987,20 +5998,20 @@
       <c r="K79">
         <v>0.35</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="2">
         <v>0.09</v>
       </c>
       <c r="M79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P79" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R79">
         <v>1700000</v>
@@ -6019,14 +6030,14 @@
       <c r="D80" t="s">
         <v>193</v>
       </c>
-      <c r="E80" t="s">
-        <v>218</v>
+      <c r="E80" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F80">
         <v>1856</v>
       </c>
-      <c r="G80" t="s">
-        <v>235</v>
+      <c r="G80" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="I80">
         <v>58226892</v>
@@ -6037,17 +6048,17 @@
       <c r="K80">
         <v>0.34</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="2">
         <v>0.22</v>
       </c>
       <c r="M80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R80">
         <v>12840000</v>
@@ -6066,17 +6077,17 @@
       <c r="D81" t="s">
         <v>193</v>
       </c>
-      <c r="E81" t="s">
-        <v>218</v>
+      <c r="E81" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F81">
         <v>1826</v>
       </c>
-      <c r="G81" t="s">
-        <v>234</v>
+      <c r="G81" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="H81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I81">
         <v>15760267</v>
@@ -6087,20 +6098,20 @@
       <c r="K81">
         <v>0.35</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="M81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R81">
         <v>4030000.0000000005</v>
@@ -6119,14 +6130,14 @@
       <c r="D82" t="s">
         <v>193</v>
       </c>
-      <c r="E82" t="s">
-        <v>219</v>
+      <c r="E82" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="F82">
         <v>1095</v>
       </c>
-      <c r="G82" t="s">
-        <v>236</v>
+      <c r="G82" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="I82">
         <v>3586664.01</v>
@@ -6137,23 +6148,23 @@
       <c r="K82">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="M82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N82">
         <v>17</v>
       </c>
       <c r="O82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q82" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R82">
         <v>1810000</v>
@@ -6172,14 +6183,14 @@
       <c r="D83" t="s">
         <v>193</v>
       </c>
-      <c r="E83" t="s">
-        <v>219</v>
+      <c r="E83" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="F83">
         <v>1096</v>
       </c>
-      <c r="G83" t="s">
-        <v>236</v>
+      <c r="G83" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="I83">
         <v>2120280</v>
@@ -6190,23 +6201,23 @@
       <c r="K83">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="M83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N83">
         <v>11</v>
       </c>
       <c r="O83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R83">
         <v>107000000</v>
@@ -6225,14 +6236,14 @@
       <c r="D84" t="s">
         <v>193</v>
       </c>
-      <c r="E84" t="s">
-        <v>219</v>
+      <c r="E84" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="F84">
         <v>1096</v>
       </c>
-      <c r="G84" t="s">
-        <v>236</v>
+      <c r="G84" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="I84">
         <v>2377520</v>
@@ -6243,23 +6254,23 @@
       <c r="K84">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="M84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N84">
         <v>12</v>
       </c>
       <c r="O84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R84">
         <v>1230000</v>
@@ -6278,14 +6289,14 @@
       <c r="D85" t="s">
         <v>193</v>
       </c>
-      <c r="E85" t="s">
-        <v>219</v>
+      <c r="E85" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="F85">
         <v>1096</v>
       </c>
-      <c r="G85" t="s">
-        <v>236</v>
+      <c r="G85" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="I85">
         <v>1331213.8799999999</v>
@@ -6296,23 +6307,23 @@
       <c r="K85">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="M85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N85">
         <v>6</v>
       </c>
       <c r="O85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R85">
         <v>650000</v>
@@ -6331,14 +6342,14 @@
       <c r="D86" t="s">
         <v>193</v>
       </c>
-      <c r="E86" t="s">
-        <v>219</v>
+      <c r="E86" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="F86">
         <v>1096</v>
       </c>
-      <c r="G86" t="s">
-        <v>237</v>
+      <c r="G86" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="I86">
         <v>4251789</v>
@@ -6349,23 +6360,23 @@
       <c r="K86">
         <v>0.54</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="2">
         <v>0.54</v>
       </c>
       <c r="M86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N86">
         <v>25</v>
       </c>
       <c r="O86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R86">
         <v>1800000</v>
